--- a/C-kod/Huvudmodul/Karta.xlsx
+++ b/C-kod/Huvudmodul/Karta.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eletr654\Desktop\Git\TSEA56-Grupp-4\C-kod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eletr654\Desktop\Git\TSEA56-Grupp-4\C-kod\Huvudmodul\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -201,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -220,7 +220,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -245,7 +244,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -532,7 +530,7 @@
   <dimension ref="B1:AB38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+      <selection activeCell="AB20" sqref="AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,11 +634,11 @@
         <v>14</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="45">
+      <c r="D4" s="19"/>
+      <c r="E4" s="43">
         <v>0</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="6"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -673,7 +671,7 @@
       <c r="B5" s="15">
         <v>15</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="13">
         <v>2</v>
       </c>
@@ -683,7 +681,7 @@
       <c r="F5" s="13">
         <v>10</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="39"/>
       <c r="H5" s="3"/>
       <c r="I5" s="8"/>
       <c r="J5" s="3"/>
@@ -695,7 +693,7 @@
       <c r="O5" s="15">
         <v>15</v>
       </c>
-      <c r="P5" s="31"/>
+      <c r="P5" s="30"/>
       <c r="Q5" s="13">
         <v>10</v>
       </c>
@@ -719,7 +717,7 @@
       <c r="B6" s="15">
         <v>16</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="3">
         <v>3</v>
       </c>
@@ -739,7 +737,7 @@
       <c r="O6" s="15">
         <v>16</v>
       </c>
-      <c r="P6" s="31"/>
+      <c r="P6" s="30"/>
       <c r="Q6" s="3">
         <v>9</v>
       </c>
@@ -761,7 +759,7 @@
       <c r="B7" s="15">
         <v>17</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="3">
         <v>4</v>
       </c>
@@ -781,7 +779,7 @@
       <c r="O7" s="15">
         <v>17</v>
       </c>
-      <c r="P7" s="31"/>
+      <c r="P7" s="30"/>
       <c r="Q7" s="3">
         <v>8</v>
       </c>
@@ -803,7 +801,7 @@
       <c r="B8" s="15">
         <v>18</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="13">
         <v>5</v>
       </c>
@@ -822,14 +820,14 @@
       <c r="I8" s="17"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
-      <c r="L8" s="22"/>
+      <c r="L8" s="21"/>
       <c r="M8" s="15">
         <v>18</v>
       </c>
       <c r="O8" s="15">
         <v>18</v>
       </c>
-      <c r="P8" s="31"/>
+      <c r="P8" s="30"/>
       <c r="Q8" s="13">
         <v>7</v>
       </c>
@@ -848,13 +846,13 @@
       <c r="V8" s="8"/>
       <c r="W8" s="13"/>
       <c r="X8" s="13"/>
-      <c r="Y8" s="22"/>
+      <c r="Y8" s="21"/>
       <c r="Z8" s="15">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B9" s="21">
+      <c r="B9" s="20">
         <v>19</v>
       </c>
       <c r="C9" s="2">
@@ -878,7 +876,7 @@
       <c r="M9" s="15">
         <v>19</v>
       </c>
-      <c r="O9" s="42">
+      <c r="O9" s="41">
         <v>19</v>
       </c>
       <c r="P9" s="2"/>
@@ -901,7 +899,7 @@
       <c r="B10" s="15">
         <v>20</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="17"/>
       <c r="E10" s="8"/>
       <c r="F10" s="17"/>
@@ -919,7 +917,7 @@
       <c r="O10" s="15">
         <v>20</v>
       </c>
-      <c r="P10" s="31"/>
+      <c r="P10" s="30"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
@@ -943,11 +941,11 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="23">
+      <c r="G11" s="9"/>
+      <c r="H11" s="22">
         <v>12</v>
       </c>
-      <c r="I11" s="18"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="10"/>
@@ -962,7 +960,7 @@
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
-      <c r="U11" s="28">
+      <c r="U11" s="27">
         <v>0</v>
       </c>
       <c r="V11" s="9"/>
@@ -1036,7 +1034,7 @@
       </c>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="AA13" s="44"/>
+      <c r="AA13" s="42"/>
     </row>
     <row r="16" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="15">
@@ -1105,19 +1103,19 @@
         <v>14</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="45">
+      <c r="D17" s="23"/>
+      <c r="E17" s="43">
         <v>0</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="27">
-        <v>15</v>
-      </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="30"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="26">
+        <v>15</v>
+      </c>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="29"/>
       <c r="M17" s="15">
         <v>14</v>
       </c>
@@ -1126,18 +1124,18 @@
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="27">
+      <c r="R17" s="26">
         <v>12</v>
       </c>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
-      <c r="U17" s="27">
-        <v>7</v>
-      </c>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="30"/>
+      <c r="U17" s="26">
+        <v>7</v>
+      </c>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="29"/>
       <c r="Z17" s="15">
         <v>14</v>
       </c>
@@ -1146,17 +1144,17 @@
       <c r="B18" s="15">
         <v>15</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="13">
         <v>1</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="13">
         <v>14</v>
       </c>
-      <c r="I18" s="25"/>
+      <c r="I18" s="24"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="11"/>
@@ -1166,7 +1164,7 @@
       <c r="O18" s="15">
         <v>15</v>
       </c>
-      <c r="P18" s="31"/>
+      <c r="P18" s="30"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="13">
         <v>11</v>
@@ -1185,10 +1183,10 @@
       </c>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B19" s="33">
-        <v>16</v>
-      </c>
-      <c r="C19" s="36">
+      <c r="B19" s="32">
+        <v>16</v>
+      </c>
+      <c r="C19" s="35">
         <v>4</v>
       </c>
       <c r="D19" s="13">
@@ -1209,14 +1207,14 @@
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
-      <c r="L19" s="22"/>
+      <c r="L19" s="21"/>
       <c r="M19" s="15">
         <v>16</v>
       </c>
-      <c r="O19" s="42">
-        <v>16</v>
-      </c>
-      <c r="P19" s="34"/>
+      <c r="O19" s="41">
+        <v>16</v>
+      </c>
+      <c r="P19" s="33"/>
       <c r="Q19" s="13">
         <v>9</v>
       </c>
@@ -1235,7 +1233,7 @@
       <c r="V19" s="14"/>
       <c r="W19" s="13"/>
       <c r="X19" s="13"/>
-      <c r="Y19" s="22"/>
+      <c r="Y19" s="21"/>
       <c r="Z19" s="15">
         <v>16</v>
       </c>
@@ -1244,27 +1242,27 @@
       <c r="B20" s="15">
         <v>17</v>
       </c>
-      <c r="C20" s="26"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="13">
         <v>4</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="13">
         <v>12</v>
       </c>
-      <c r="I20" s="25"/>
+      <c r="I20" s="24"/>
       <c r="J20" s="13"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="22"/>
+      <c r="L20" s="21"/>
       <c r="M20" s="15">
         <v>17</v>
       </c>
       <c r="O20" s="15">
         <v>17</v>
       </c>
-      <c r="P20" s="31"/>
+      <c r="P20" s="30"/>
       <c r="Q20" s="13">
         <v>8</v>
       </c>
@@ -1277,37 +1275,37 @@
       <c r="V20" s="8"/>
       <c r="W20" s="13"/>
       <c r="X20" s="8"/>
-      <c r="Y20" s="22"/>
+      <c r="Y20" s="21"/>
       <c r="Z20" s="15">
         <v>17</v>
       </c>
-      <c r="AB20" s="43"/>
+      <c r="AB20" s="42"/>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B21" s="15">
         <v>18</v>
       </c>
-      <c r="C21" s="26"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="13">
         <v>5</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
       <c r="H21" s="13">
         <v>11</v>
       </c>
-      <c r="I21" s="25"/>
+      <c r="I21" s="24"/>
       <c r="J21" s="13"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="22"/>
+      <c r="L21" s="21"/>
       <c r="M21" s="15">
         <v>18</v>
       </c>
       <c r="O21" s="15">
         <v>18</v>
       </c>
-      <c r="P21" s="31"/>
+      <c r="P21" s="30"/>
       <c r="Q21" s="13">
         <v>7</v>
       </c>
@@ -1320,7 +1318,7 @@
       <c r="V21" s="8"/>
       <c r="W21" s="13"/>
       <c r="X21" s="8"/>
-      <c r="Y21" s="22"/>
+      <c r="Y21" s="21"/>
       <c r="Z21" s="15">
         <v>18</v>
       </c>
@@ -1329,7 +1327,7 @@
       <c r="B22" s="16">
         <v>19</v>
       </c>
-      <c r="C22" s="26"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="13">
         <v>6</v>
       </c>
@@ -1348,14 +1346,14 @@
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="22"/>
+      <c r="L22" s="21"/>
       <c r="M22" s="15">
         <v>19</v>
       </c>
       <c r="O22" s="16">
         <v>19</v>
       </c>
-      <c r="P22" s="31"/>
+      <c r="P22" s="30"/>
       <c r="Q22" s="13">
         <v>6</v>
       </c>
@@ -1374,7 +1372,7 @@
       <c r="V22" s="14"/>
       <c r="W22" s="13"/>
       <c r="X22" s="8"/>
-      <c r="Y22" s="22"/>
+      <c r="Y22" s="21"/>
       <c r="Z22" s="15">
         <v>19</v>
       </c>
@@ -1383,25 +1381,25 @@
       <c r="B23" s="15">
         <v>20</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
       <c r="H23" s="13">
         <v>11</v>
       </c>
-      <c r="I23" s="25"/>
+      <c r="I23" s="24"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="22"/>
+      <c r="L23" s="21"/>
       <c r="M23" s="15">
         <v>20</v>
       </c>
       <c r="O23" s="15">
         <v>20</v>
       </c>
-      <c r="P23" s="31"/>
+      <c r="P23" s="30"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
@@ -1412,7 +1410,7 @@
       <c r="V23" s="8"/>
       <c r="W23" s="8"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="22"/>
+      <c r="Y23" s="21"/>
       <c r="Z23" s="15">
         <v>20</v>
       </c>
@@ -1426,13 +1424,13 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="32">
+      <c r="H24" s="31">
         <v>12</v>
       </c>
       <c r="I24" s="9"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="29"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="28"/>
       <c r="M24" s="15">
         <v>21</v>
       </c>
@@ -1444,13 +1442,13 @@
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
-      <c r="U24" s="46">
+      <c r="U24" s="44">
         <v>0</v>
       </c>
       <c r="V24" s="9"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="29"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="28"/>
       <c r="Z24" s="15">
         <v>21</v>
       </c>
@@ -1518,22 +1516,22 @@
       </c>
     </row>
     <row r="29" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="41">
-        <v>16</v>
-      </c>
-      <c r="D29" s="41">
-        <v>15</v>
-      </c>
-      <c r="E29" s="41">
-        <v>14</v>
-      </c>
-      <c r="F29" s="41">
+      <c r="C29" s="40">
+        <v>16</v>
+      </c>
+      <c r="D29" s="40">
+        <v>15</v>
+      </c>
+      <c r="E29" s="40">
+        <v>14</v>
+      </c>
+      <c r="F29" s="40">
         <v>13</v>
       </c>
-      <c r="G29" s="41">
+      <c r="G29" s="40">
         <v>12</v>
       </c>
-      <c r="H29" s="41">
+      <c r="H29" s="40">
         <v>11</v>
       </c>
       <c r="I29" s="16">
@@ -1580,90 +1578,90 @@
       </c>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B30" s="41">
-        <v>14</v>
-      </c>
-      <c r="C30" s="35">
+      <c r="B30" s="40">
+        <v>14</v>
+      </c>
+      <c r="C30" s="34">
         <v>2</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="26">
         <v>1</v>
       </c>
-      <c r="E30" s="45">
+      <c r="E30" s="43">
         <v>0</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F30" s="26">
         <v>19</v>
       </c>
-      <c r="G30" s="27">
+      <c r="G30" s="26">
         <v>18</v>
       </c>
-      <c r="H30" s="27">
+      <c r="H30" s="26">
         <v>17</v>
       </c>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="30"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="29"/>
       <c r="M30" s="15">
         <v>14</v>
       </c>
       <c r="O30" s="16">
         <v>14</v>
       </c>
-      <c r="P30" s="35">
+      <c r="P30" s="34">
         <v>12</v>
       </c>
-      <c r="Q30" s="27">
+      <c r="Q30" s="26">
         <v>13</v>
       </c>
-      <c r="R30" s="27">
-        <v>14</v>
-      </c>
-      <c r="S30" s="27">
+      <c r="R30" s="26">
+        <v>14</v>
+      </c>
+      <c r="S30" s="26">
         <v>11</v>
       </c>
-      <c r="T30" s="27">
+      <c r="T30" s="26">
         <v>10</v>
       </c>
-      <c r="U30" s="27">
-        <v>9</v>
-      </c>
-      <c r="V30" s="39"/>
-      <c r="W30" s="27"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="30"/>
+      <c r="U30" s="26">
+        <v>9</v>
+      </c>
+      <c r="V30" s="38"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="29"/>
       <c r="Z30" s="15">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B31" s="41">
-        <v>15</v>
-      </c>
-      <c r="C31" s="36">
+      <c r="B31" s="40">
+        <v>15</v>
+      </c>
+      <c r="C31" s="35">
         <v>3</v>
       </c>
-      <c r="D31" s="40"/>
+      <c r="D31" s="39"/>
       <c r="E31" s="13">
         <v>13</v>
       </c>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
       <c r="H31" s="13">
         <v>16</v>
       </c>
-      <c r="I31" s="40"/>
+      <c r="I31" s="39"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="22"/>
+      <c r="L31" s="21"/>
       <c r="M31" s="15">
         <v>15</v>
       </c>
       <c r="O31" s="16">
         <v>15</v>
       </c>
-      <c r="P31" s="36">
+      <c r="P31" s="35">
         <v>11</v>
       </c>
       <c r="Q31" s="8"/>
@@ -1678,23 +1676,23 @@
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
       <c r="X31" s="8"/>
-      <c r="Y31" s="22"/>
+      <c r="Y31" s="21"/>
       <c r="Z31" s="15">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B32" s="41">
-        <v>16</v>
-      </c>
-      <c r="C32" s="36">
+      <c r="B32" s="40">
+        <v>16</v>
+      </c>
+      <c r="C32" s="35">
         <v>4</v>
       </c>
-      <c r="D32" s="40"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="13">
         <v>12</v>
       </c>
-      <c r="F32" s="40"/>
+      <c r="F32" s="39"/>
       <c r="G32" s="13">
         <v>14</v>
       </c>
@@ -1704,14 +1702,14 @@
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
-      <c r="L32" s="22"/>
+      <c r="L32" s="21"/>
       <c r="M32" s="15">
         <v>16</v>
       </c>
       <c r="O32" s="16">
         <v>16</v>
       </c>
-      <c r="P32" s="36">
+      <c r="P32" s="35">
         <v>10</v>
       </c>
       <c r="Q32" s="8"/>
@@ -1728,38 +1726,38 @@
       <c r="V32" s="14"/>
       <c r="W32" s="13"/>
       <c r="X32" s="13"/>
-      <c r="Y32" s="22"/>
+      <c r="Y32" s="21"/>
       <c r="Z32" s="15">
         <v>16</v>
       </c>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B33" s="41">
+      <c r="B33" s="40">
         <v>17</v>
       </c>
-      <c r="C33" s="36">
+      <c r="C33" s="35">
         <v>5</v>
       </c>
-      <c r="D33" s="40"/>
+      <c r="D33" s="39"/>
       <c r="E33" s="13">
         <v>11</v>
       </c>
-      <c r="F33" s="40"/>
+      <c r="F33" s="39"/>
       <c r="G33" s="13">
         <v>13</v>
       </c>
-      <c r="H33" s="40"/>
+      <c r="H33" s="39"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
-      <c r="L33" s="22"/>
+      <c r="L33" s="21"/>
       <c r="M33" s="15">
         <v>17</v>
       </c>
       <c r="O33" s="16">
         <v>17</v>
       </c>
-      <c r="P33" s="36">
+      <c r="P33" s="35">
         <v>9</v>
       </c>
       <c r="Q33" s="8"/>
@@ -1774,38 +1772,38 @@
       <c r="V33" s="8"/>
       <c r="W33" s="8"/>
       <c r="X33" s="8"/>
-      <c r="Y33" s="22"/>
+      <c r="Y33" s="21"/>
       <c r="Z33" s="15">
         <v>17</v>
       </c>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B34" s="41">
+      <c r="B34" s="40">
         <v>18</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="35">
         <v>6</v>
       </c>
-      <c r="D34" s="40"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="13">
         <v>10</v>
       </c>
-      <c r="F34" s="40"/>
+      <c r="F34" s="39"/>
       <c r="G34" s="13">
         <v>12</v>
       </c>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
-      <c r="L34" s="22"/>
+      <c r="L34" s="21"/>
       <c r="M34" s="15">
         <v>18</v>
       </c>
       <c r="O34" s="16">
         <v>18</v>
       </c>
-      <c r="P34" s="36">
+      <c r="P34" s="35">
         <v>8</v>
       </c>
       <c r="Q34" s="8"/>
@@ -1820,16 +1818,16 @@
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
       <c r="X34" s="8"/>
-      <c r="Y34" s="22"/>
+      <c r="Y34" s="21"/>
       <c r="Z34" s="15">
         <v>18</v>
       </c>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B35" s="41">
+      <c r="B35" s="40">
         <v>19</v>
       </c>
-      <c r="C35" s="36">
+      <c r="C35" s="35">
         <v>7</v>
       </c>
       <c r="D35" s="13">
@@ -1852,14 +1850,14 @@
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
-      <c r="L35" s="22"/>
+      <c r="L35" s="21"/>
       <c r="M35" s="15">
         <v>19</v>
       </c>
       <c r="O35" s="16">
         <v>19</v>
       </c>
-      <c r="P35" s="36">
+      <c r="P35" s="35">
         <v>7</v>
       </c>
       <c r="Q35" s="13">
@@ -1882,26 +1880,26 @@
       </c>
       <c r="W35" s="13"/>
       <c r="X35" s="13"/>
-      <c r="Y35" s="22"/>
+      <c r="Y35" s="21"/>
       <c r="Z35" s="15">
         <v>19</v>
       </c>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B36" s="41">
+      <c r="B36" s="40">
         <v>20</v>
       </c>
-      <c r="C36" s="36">
-        <v>8</v>
-      </c>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
+      <c r="C36" s="35">
+        <v>8</v>
+      </c>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
       <c r="H36" s="13">
         <v>13</v>
       </c>
-      <c r="I36" s="40"/>
+      <c r="I36" s="39"/>
       <c r="J36" s="8"/>
       <c r="K36" s="13"/>
       <c r="L36" s="11"/>
@@ -1911,7 +1909,7 @@
       <c r="O36" s="16">
         <v>20</v>
       </c>
-      <c r="P36" s="34"/>
+      <c r="P36" s="33"/>
       <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
@@ -1928,17 +1926,17 @@
       </c>
     </row>
     <row r="37" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="41">
+      <c r="B37" s="40">
         <v>21</v>
       </c>
-      <c r="C37" s="37">
-        <v>9</v>
-      </c>
-      <c r="D37" s="38"/>
+      <c r="C37" s="36">
+        <v>9</v>
+      </c>
+      <c r="D37" s="37"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="32">
+      <c r="H37" s="31">
         <v>14</v>
       </c>
       <c r="I37" s="9"/>
@@ -1951,12 +1949,12 @@
       <c r="O37" s="16">
         <v>21</v>
       </c>
-      <c r="P37" s="37"/>
+      <c r="P37" s="36"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
       <c r="T37" s="9"/>
-      <c r="U37" s="46">
+      <c r="U37" s="44">
         <v>0</v>
       </c>
       <c r="V37" s="9"/>
@@ -1968,7 +1966,7 @@
       </c>
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="41">
+      <c r="C38" s="40">
         <v>16</v>
       </c>
       <c r="D38" s="15">

--- a/C-kod/Huvudmodul/Karta.xlsx
+++ b/C-kod/Huvudmodul/Karta.xlsx
@@ -201,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -243,7 +243,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -530,7 +529,7 @@
   <dimension ref="B1:AB38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB20"/>
+      <selection activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +634,7 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="19"/>
-      <c r="E4" s="43">
+      <c r="E4" s="42">
         <v>0</v>
       </c>
       <c r="F4" s="19"/>
@@ -876,7 +875,7 @@
       <c r="M9" s="15">
         <v>19</v>
       </c>
-      <c r="O9" s="41">
+      <c r="O9" s="16">
         <v>19</v>
       </c>
       <c r="P9" s="2"/>
@@ -1034,7 +1033,7 @@
       </c>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="AA13" s="42"/>
+      <c r="AA13" s="41"/>
     </row>
     <row r="16" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="15">
@@ -1104,7 +1103,7 @@
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="23"/>
-      <c r="E17" s="43">
+      <c r="E17" s="42">
         <v>0</v>
       </c>
       <c r="F17" s="23"/>
@@ -1132,7 +1131,7 @@
       <c r="U17" s="26">
         <v>7</v>
       </c>
-      <c r="V17" s="26"/>
+      <c r="V17" s="38"/>
       <c r="W17" s="26"/>
       <c r="X17" s="26"/>
       <c r="Y17" s="29"/>
@@ -1171,7 +1170,7 @@
       </c>
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
-      <c r="U18" s="14">
+      <c r="U18" s="13">
         <v>6</v>
       </c>
       <c r="V18" s="8"/>
@@ -1211,7 +1210,7 @@
       <c r="M19" s="15">
         <v>16</v>
       </c>
-      <c r="O19" s="41">
+      <c r="O19" s="16">
         <v>16</v>
       </c>
       <c r="P19" s="33"/>
@@ -1279,7 +1278,7 @@
       <c r="Z20" s="15">
         <v>17</v>
       </c>
-      <c r="AB20" s="42"/>
+      <c r="AB20" s="41"/>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B21" s="15">
@@ -1442,7 +1441,7 @@
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
-      <c r="U24" s="44">
+      <c r="U24" s="43">
         <v>0</v>
       </c>
       <c r="V24" s="9"/>
@@ -1587,7 +1586,7 @@
       <c r="D30" s="26">
         <v>1</v>
       </c>
-      <c r="E30" s="43">
+      <c r="E30" s="42">
         <v>0</v>
       </c>
       <c r="F30" s="26">
@@ -1875,10 +1874,10 @@
       <c r="U35" s="13">
         <v>2</v>
       </c>
-      <c r="V35" s="14">
+      <c r="V35" s="13">
         <v>3</v>
       </c>
-      <c r="W35" s="13"/>
+      <c r="W35" s="14"/>
       <c r="X35" s="13"/>
       <c r="Y35" s="21"/>
       <c r="Z35" s="15">
@@ -1954,7 +1953,7 @@
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
       <c r="T37" s="9"/>
-      <c r="U37" s="44">
+      <c r="U37" s="43">
         <v>0</v>
       </c>
       <c r="V37" s="9"/>

--- a/C-kod/Huvudmodul/Karta.xlsx
+++ b/C-kod/Huvudmodul/Karta.xlsx
@@ -36,7 +36,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +54,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -201,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -246,6 +253,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AB38"/>
+  <dimension ref="B1:AB51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AA29" sqref="AA29"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="P57" sqref="P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2025,6 +2035,491 @@
       <c r="Y38" s="16">
         <v>7</v>
       </c>
+      <c r="Z38" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="15">
+        <v>16</v>
+      </c>
+      <c r="D42" s="15">
+        <v>15</v>
+      </c>
+      <c r="E42" s="16">
+        <v>14</v>
+      </c>
+      <c r="F42" s="16">
+        <v>13</v>
+      </c>
+      <c r="G42" s="16">
+        <v>12</v>
+      </c>
+      <c r="H42" s="16">
+        <v>11</v>
+      </c>
+      <c r="I42" s="16">
+        <v>10</v>
+      </c>
+      <c r="J42" s="16">
+        <v>9</v>
+      </c>
+      <c r="K42" s="16">
+        <v>8</v>
+      </c>
+      <c r="L42" s="16">
+        <v>7</v>
+      </c>
+      <c r="P42" s="15">
+        <v>16</v>
+      </c>
+      <c r="Q42" s="15">
+        <v>15</v>
+      </c>
+      <c r="R42" s="16">
+        <v>14</v>
+      </c>
+      <c r="S42" s="16">
+        <v>13</v>
+      </c>
+      <c r="T42" s="16">
+        <v>12</v>
+      </c>
+      <c r="U42" s="16">
+        <v>11</v>
+      </c>
+      <c r="V42" s="16">
+        <v>10</v>
+      </c>
+      <c r="W42" s="16">
+        <v>9</v>
+      </c>
+      <c r="X42" s="16">
+        <v>8</v>
+      </c>
+      <c r="Y42" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B43" s="15">
+        <v>14</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="42">
+        <v>0</v>
+      </c>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="26">
+        <v>17</v>
+      </c>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="15">
+        <v>14</v>
+      </c>
+      <c r="O43" s="15">
+        <v>14</v>
+      </c>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="42">
+        <v>12</v>
+      </c>
+      <c r="S43" s="23"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="26">
+        <v>7</v>
+      </c>
+      <c r="V43" s="46"/>
+      <c r="W43" s="26"/>
+      <c r="X43" s="26"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B44" s="15">
+        <v>15</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="13">
+        <v>1</v>
+      </c>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="13">
+        <v>16</v>
+      </c>
+      <c r="I44" s="24"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="15">
+        <v>15</v>
+      </c>
+      <c r="O44" s="15">
+        <v>15</v>
+      </c>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="13">
+        <v>11</v>
+      </c>
+      <c r="S44" s="24"/>
+      <c r="T44" s="24"/>
+      <c r="U44" s="13">
+        <v>6</v>
+      </c>
+      <c r="V44" s="24"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B45" s="32">
+        <v>16</v>
+      </c>
+      <c r="C45" s="35">
+        <v>4</v>
+      </c>
+      <c r="D45" s="13">
+        <v>3</v>
+      </c>
+      <c r="E45" s="13">
+        <v>2</v>
+      </c>
+      <c r="F45" s="13">
+        <v>17</v>
+      </c>
+      <c r="G45" s="13">
+        <v>16</v>
+      </c>
+      <c r="H45" s="13">
+        <v>15</v>
+      </c>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="15">
+        <v>16</v>
+      </c>
+      <c r="O45" s="32">
+        <v>16</v>
+      </c>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="13">
+        <v>9</v>
+      </c>
+      <c r="R45" s="13">
+        <v>10</v>
+      </c>
+      <c r="S45" s="13">
+        <v>7</v>
+      </c>
+      <c r="T45" s="13">
+        <v>6</v>
+      </c>
+      <c r="U45" s="13">
+        <v>5</v>
+      </c>
+      <c r="V45" s="45"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
+      <c r="Y45" s="21"/>
+      <c r="Z45" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B46" s="15">
+        <v>17</v>
+      </c>
+      <c r="C46" s="25"/>
+      <c r="D46" s="13">
+        <v>4</v>
+      </c>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="13">
+        <v>14</v>
+      </c>
+      <c r="I46" s="24"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="15">
+        <v>17</v>
+      </c>
+      <c r="O46" s="15">
+        <v>17</v>
+      </c>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="13">
+        <v>8</v>
+      </c>
+      <c r="R46" s="24"/>
+      <c r="S46" s="24"/>
+      <c r="T46" s="24"/>
+      <c r="U46" s="13">
+        <v>4</v>
+      </c>
+      <c r="V46" s="24"/>
+      <c r="W46" s="13"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="21"/>
+      <c r="Z46" s="15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B47" s="15">
+        <v>18</v>
+      </c>
+      <c r="C47" s="25"/>
+      <c r="D47" s="13">
+        <v>5</v>
+      </c>
+      <c r="E47" s="24"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="13">
+        <v>13</v>
+      </c>
+      <c r="I47" s="24"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="15">
+        <v>18</v>
+      </c>
+      <c r="O47" s="15">
+        <v>18</v>
+      </c>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="13">
+        <v>7</v>
+      </c>
+      <c r="R47" s="24"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="24"/>
+      <c r="U47" s="13">
+        <v>3</v>
+      </c>
+      <c r="V47" s="24"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B48" s="16">
+        <v>19</v>
+      </c>
+      <c r="C48" s="25"/>
+      <c r="D48" s="13">
+        <v>6</v>
+      </c>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="13">
+        <v>12</v>
+      </c>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="15">
+        <v>19</v>
+      </c>
+      <c r="O48" s="16">
+        <v>19</v>
+      </c>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="13">
+        <v>6</v>
+      </c>
+      <c r="R48" s="24"/>
+      <c r="S48" s="24"/>
+      <c r="T48" s="24"/>
+      <c r="U48" s="13">
+        <v>2</v>
+      </c>
+      <c r="V48" s="45"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="21"/>
+      <c r="Z48" s="15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B49" s="15">
+        <v>20</v>
+      </c>
+      <c r="C49" s="25"/>
+      <c r="D49" s="13">
+        <v>7</v>
+      </c>
+      <c r="E49" s="13">
+        <v>8</v>
+      </c>
+      <c r="F49" s="13">
+        <v>9</v>
+      </c>
+      <c r="G49" s="13">
+        <v>10</v>
+      </c>
+      <c r="H49" s="13">
+        <v>11</v>
+      </c>
+      <c r="I49" s="24"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="15">
+        <v>20</v>
+      </c>
+      <c r="O49" s="15">
+        <v>20</v>
+      </c>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="13">
+        <v>5</v>
+      </c>
+      <c r="R49" s="13">
+        <v>4</v>
+      </c>
+      <c r="S49" s="13">
+        <v>3</v>
+      </c>
+      <c r="T49" s="13">
+        <v>2</v>
+      </c>
+      <c r="U49" s="13">
+        <v>1</v>
+      </c>
+      <c r="V49" s="24"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="21"/>
+      <c r="Z49" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="15">
+        <v>21</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="31">
+        <v>12</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="15">
+        <v>21</v>
+      </c>
+      <c r="O50" s="15">
+        <v>21</v>
+      </c>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="44"/>
+      <c r="T50" s="44"/>
+      <c r="U50" s="31">
+        <v>0</v>
+      </c>
+      <c r="V50" s="9"/>
+      <c r="W50" s="27"/>
+      <c r="X50" s="27"/>
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C51" s="15">
+        <v>16</v>
+      </c>
+      <c r="D51" s="15">
+        <v>15</v>
+      </c>
+      <c r="E51" s="16">
+        <v>14</v>
+      </c>
+      <c r="F51" s="16">
+        <v>13</v>
+      </c>
+      <c r="G51" s="16">
+        <v>12</v>
+      </c>
+      <c r="H51" s="16">
+        <v>11</v>
+      </c>
+      <c r="I51" s="16">
+        <v>10</v>
+      </c>
+      <c r="J51" s="16">
+        <v>9</v>
+      </c>
+      <c r="K51" s="16">
+        <v>8</v>
+      </c>
+      <c r="L51" s="16">
+        <v>7</v>
+      </c>
+      <c r="P51" s="15">
+        <v>16</v>
+      </c>
+      <c r="Q51" s="15">
+        <v>15</v>
+      </c>
+      <c r="R51" s="16">
+        <v>14</v>
+      </c>
+      <c r="S51" s="16">
+        <v>13</v>
+      </c>
+      <c r="T51" s="16">
+        <v>12</v>
+      </c>
+      <c r="U51" s="16">
+        <v>11</v>
+      </c>
+      <c r="V51" s="16">
+        <v>10</v>
+      </c>
+      <c r="W51" s="16">
+        <v>9</v>
+      </c>
+      <c r="X51" s="16">
+        <v>8</v>
+      </c>
+      <c r="Y51" s="16">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
